--- a/data files/Purchase Order/Shiv Ram Industries.xlsx
+++ b/data files/Purchase Order/Shiv Ram Industries.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97936F9-E845-47F6-BCD8-585F6F1B6C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="5508" yWindow="1500" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -136,9 +137,6 @@
     <t>Pcs</t>
   </si>
   <si>
-    <t>Without Brand, Plain Poly Packing.</t>
-  </si>
-  <si>
     <t>Shiv Ram Medical Devices</t>
   </si>
   <si>
@@ -255,12 +253,15 @@
   <si>
     <t>1</t>
   </si>
+  <si>
+    <t>*Without Brand, Plain Poly Packing.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,7 +487,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -584,7 +585,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -594,6 +594,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -614,7 +622,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvPr id="2" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -644,9 +658,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -684,7 +698,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -718,6 +732,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -752,9 +767,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -927,24 +943,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="58.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="58.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="D1" s="32" t="s">
@@ -952,13 +968,13 @@
       </c>
       <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="D2" s="16"/>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="30">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -966,7 +982,7 @@
       <c r="D3" s="16"/>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:5" ht="18.75">
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>16</v>
       </c>
@@ -974,13 +990,13 @@
       <c r="D4" s="20"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="D5" s="21"/>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>14</v>
       </c>
@@ -989,7 +1005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>18</v>
       </c>
@@ -998,12 +1014,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="15"/>
       <c r="D8" s="23"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1015,19 +1031,19 @@
         <v>45449</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1036,28 +1052,28 @@
       <c r="D11" s="1"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="26"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>9</v>
       </c>
@@ -1072,14 +1088,14 @@
       </c>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
       <c r="B17" s="30"/>
       <c r="C17" s="29"/>
       <c r="D17" s="30"/>
       <c r="E17" s="31"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="42">
         <v>1</v>
       </c>
@@ -1094,17 +1110,17 @@
       </c>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="42"/>
       <c r="B19" s="45" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="44"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="43"/>
@@ -1112,7 +1128,7 @@
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="42">
         <v>2</v>
       </c>
@@ -1127,17 +1143,17 @@
       </c>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="42"/>
       <c r="B22" s="45" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C22" s="43"/>
       <c r="D22" s="44"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="42"/>
       <c r="B23" s="42"/>
       <c r="C23" s="43"/>
@@ -1145,7 +1161,7 @@
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="42">
         <v>3</v>
       </c>
@@ -1160,17 +1176,17 @@
       </c>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75">
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="42"/>
       <c r="B25" s="45" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="44"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="42"/>
       <c r="B26" s="42"/>
       <c r="C26" s="43"/>
@@ -1178,15 +1194,15 @@
       <c r="E26" s="33"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6" ht="30.75">
+    <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="42">
         <v>4</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="44" t="s">
         <v>13</v>
@@ -1194,15 +1210,15 @@
       <c r="E27" s="33"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6" ht="54" customHeight="1">
-      <c r="A28" s="47">
+    <row r="28" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="42">
         <v>5</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="44" t="s">
         <v>13</v>
@@ -1210,12 +1226,12 @@
       <c r="E28" s="33"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A29" s="47">
+    <row r="29" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="42">
         <v>6</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="43">
         <v>20</v>
@@ -1226,15 +1242,15 @@
       <c r="E29" s="33"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6" ht="36" customHeight="1">
-      <c r="A30" s="47">
+    <row r="30" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42">
         <v>7</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="44" t="s">
         <v>13</v>
@@ -1242,13 +1258,13 @@
       <c r="E30" s="33"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6" ht="36" customHeight="1">
-      <c r="A31" s="47"/>
+    <row r="31" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="42"/>
       <c r="B31" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="44" t="s">
         <v>13</v>
@@ -1256,13 +1272,13 @@
       <c r="E31" s="33"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6" ht="36" customHeight="1">
-      <c r="A32" s="47"/>
+    <row r="32" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="42"/>
       <c r="B32" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" s="44" t="s">
         <v>13</v>
@@ -1270,15 +1286,15 @@
       <c r="E32" s="33"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6" ht="39" customHeight="1">
-      <c r="A33" s="47">
+    <row r="33" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42">
         <v>8</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="44" t="s">
         <v>22</v>
@@ -1286,12 +1302,12 @@
       <c r="E33" s="33"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A34" s="47">
+    <row r="34" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42">
         <v>9</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="43">
         <v>6</v>
@@ -1302,12 +1318,12 @@
       <c r="E34" s="33"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6" ht="21" customHeight="1">
+    <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="42">
         <v>10</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="43">
         <v>50</v>
@@ -1317,26 +1333,26 @@
       </c>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1">
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="42">
         <v>11</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="43">
         <v>15</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30.75">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="42">
         <v>12</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="43">
         <v>10</v>
@@ -1345,12 +1361,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30.75">
+    <row r="38" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="42">
         <v>13</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="43">
         <v>10</v>
@@ -1359,65 +1375,65 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75">
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="42"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75">
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="37"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75">
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="37"/>
     </row>
-    <row r="42" spans="1:6" ht="15.75">
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75">
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="6"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75">
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75">
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75">
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75">
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="1:6" ht="15.75">
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="9"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="12"/>
       <c r="B53" s="2"/>
     </row>
@@ -1429,12 +1445,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data files/Purchase Order/Shiv Ram Industries.xlsx
+++ b/data files/Purchase Order/Shiv Ram Industries.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97936F9-E845-47F6-BCD8-585F6F1B6C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1A0F93-9B22-4A9D-8F99-08719A9559EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5508" yWindow="1500" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>To,</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>Shiv Ram Medical Devices</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Stethoscope, Hertz,Excellent, Black Chest Pcs. Black+Grey Tubing equal qty mix.</t>
@@ -251,10 +248,10 @@
     <t>Elbow Cruth-Tynor type</t>
   </si>
   <si>
+    <t>*Without Brand, Plain Poly Packing.</t>
+  </si>
+  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>*Without Brand, Plain Poly Packing.</t>
   </si>
 </sst>
 </file>
@@ -487,7 +484,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -585,8 +582,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -946,21 +941,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="58.5546875" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="D1" s="32" t="s">
@@ -968,13 +963,13 @@
       </c>
       <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="D2" s="16"/>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -982,7 +977,7 @@
       <c r="D3" s="16"/>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>16</v>
       </c>
@@ -990,13 +985,13 @@
       <c r="D4" s="20"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="D5" s="21"/>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>14</v>
       </c>
@@ -1005,7 +1000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>18</v>
       </c>
@@ -1014,12 +1009,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="15"/>
       <c r="D8" s="23"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1028,10 +1023,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="41">
-        <v>45449</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1043,7 +1038,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1052,28 +1047,28 @@
       <c r="D11" s="1"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="26"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>9</v>
       </c>
@@ -1088,14 +1083,14 @@
       </c>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="30"/>
       <c r="C17" s="29"/>
       <c r="D17" s="30"/>
       <c r="E17" s="31"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>1</v>
       </c>
@@ -1110,17 +1105,17 @@
       </c>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="44"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="43"/>
@@ -1128,7 +1123,7 @@
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>2</v>
       </c>
@@ -1136,24 +1131,24 @@
         <v>20</v>
       </c>
       <c r="C21" s="43">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="D21" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="B22" s="45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="43"/>
       <c r="D22" s="44"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="42"/>
       <c r="C23" s="43"/>
@@ -1161,7 +1156,7 @@
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>3</v>
       </c>
@@ -1169,24 +1164,24 @@
         <v>21</v>
       </c>
       <c r="C24" s="43">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D24" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
       <c r="B25" s="45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="44"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="42"/>
       <c r="C26" s="43"/>
@@ -1194,15 +1189,15 @@
       <c r="E26" s="33"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>4</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="43" t="s">
         <v>24</v>
+      </c>
+      <c r="C27" s="43">
+        <v>100</v>
       </c>
       <c r="D27" s="44" t="s">
         <v>13</v>
@@ -1210,47 +1205,43 @@
       <c r="E27" s="33"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <v>5</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C28" s="43"/>
       <c r="D28" s="44" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>6</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="43">
-        <v>20</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C29" s="43"/>
       <c r="D29" s="44" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="42">
         <v>7</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="C30" s="43">
+        <v>2</v>
       </c>
       <c r="D30" s="44" t="s">
         <v>13</v>
@@ -1258,13 +1249,13 @@
       <c r="E30" s="33"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
       <c r="B31" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="C31" s="43">
+        <v>2</v>
       </c>
       <c r="D31" s="44" t="s">
         <v>13</v>
@@ -1272,13 +1263,13 @@
       <c r="E31" s="33"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
       <c r="B32" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="C32" s="43">
+        <v>2</v>
       </c>
       <c r="D32" s="44" t="s">
         <v>13</v>
@@ -1286,154 +1277,142 @@
       <c r="E32" s="33"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>8</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>24</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C33" s="43"/>
       <c r="D33" s="44" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>9</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="43">
-        <v>6</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C34" s="43"/>
       <c r="D34" s="44" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>10</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="43">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C35" s="43"/>
       <c r="D35" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="42">
         <v>11</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="43">
-        <v>15</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C36" s="43"/>
       <c r="D36" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
         <v>12</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="43">
-        <v>10</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C37" s="43"/>
       <c r="D37" s="44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
         <v>13</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="43">
-        <v>10</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C38" s="43"/>
       <c r="D38" s="44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="46"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="37"/>
     </row>
-    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="37"/>
     </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
     </row>
-    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="6"/>
     </row>
-    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="9"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="2"/>
     </row>
@@ -1450,7 +1429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
